--- a/dataset_excel/aprox_rotonda_train.xlsx
+++ b/dataset_excel/aprox_rotonda_train.xlsx
@@ -5213,7 +5213,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>aproxima rotonda</t>
+          <t>aproximo rotonda</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
